--- a/Data_analysis/data_proportional.xlsx
+++ b/Data_analysis/data_proportional.xlsx
@@ -6,15 +6,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="GA3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ABA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LD" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Exp_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Exp_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Exp_3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Condition</t>
   </si>
@@ -64,73 +64,91 @@
     <t xml:space="preserve">plot_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">9650_KO</t>
+    <t xml:space="preserve">Cond_1</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">9650_KOA</t>
+    <t xml:space="preserve">Cond_1A</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">9650_KOB</t>
+    <t xml:space="preserve">Cond_1B</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">9650_KOC</t>
+    <t xml:space="preserve">Cond_1C</t>
   </si>
   <si>
-    <t xml:space="preserve">11750_KO</t>
+    <t xml:space="preserve">Cond_2</t>
   </si>
   <si>
-    <t xml:space="preserve">11750_KOA</t>
+    <t xml:space="preserve">Cond_2A</t>
   </si>
   <si>
-    <t xml:space="preserve">11750_KOB</t>
+    <t xml:space="preserve">Cond_2B</t>
   </si>
   <si>
-    <t xml:space="preserve">11750_KOC</t>
+    <t xml:space="preserve">Cond_2C</t>
   </si>
   <si>
-    <t xml:space="preserve">14620_KO</t>
+    <t xml:space="preserve">Cond_3</t>
   </si>
   <si>
-    <t xml:space="preserve">14620_KOA</t>
+    <t xml:space="preserve">Cond_3A</t>
   </si>
   <si>
-    <t xml:space="preserve">14620_KOB</t>
+    <t xml:space="preserve">Cond_3B</t>
   </si>
   <si>
-    <t xml:space="preserve">14620_KOC</t>
+    <t xml:space="preserve">Cond_3C</t>
   </si>
   <si>
-    <t xml:space="preserve">Re_15</t>
+    <t xml:space="preserve">Cond_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Re_15A</t>
+    <t xml:space="preserve">Cond_4A</t>
   </si>
   <si>
-    <t xml:space="preserve">Re_15B</t>
+    <t xml:space="preserve">Cond_4B</t>
   </si>
   <si>
-    <t xml:space="preserve">Re_15C</t>
+    <t xml:space="preserve">Cond_4C</t>
   </si>
   <si>
-    <t xml:space="preserve">9_14_DKO</t>
+    <t xml:space="preserve">Cond_5</t>
   </si>
   <si>
-    <t xml:space="preserve">9_14_DKOA</t>
+    <t xml:space="preserve">Cond_5A</t>
   </si>
   <si>
-    <t xml:space="preserve">9_14_DKOB</t>
+    <t xml:space="preserve">Cond_5B</t>
   </si>
   <si>
-    <t xml:space="preserve">9_14_DKOC</t>
+    <t xml:space="preserve">Cond_5C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_1_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_2_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg_3_total</t>
   </si>
 </sst>
 </file>
@@ -11101,22 +11119,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
